--- a/codigo_final_organizado/analisis/Tabla_Comparativa_Modelos.xlsx
+++ b/codigo_final_organizado/analisis/Tabla_Comparativa_Modelos.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9345</v>
+        <v>0.9722</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0489</v>
+        <v>9.760400000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6971000000000001</v>
+        <v>0.6955</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6768</v>
+        <v>0.7103</v>
       </c>
       <c r="C3" t="n">
-        <v>3.505</v>
+        <v>3.0618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6531</v>
+        <v>0.6706</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9049</v>
+        <v>0.9172</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1183</v>
+        <v>10.969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6318</v>
+        <v>0.646</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5779</v>
       </c>
       <c r="C5" t="n">
-        <v>3.6998</v>
+        <v>3.1462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5845</v>
+        <v>0.6249</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9515</v>
+        <v>1.0382</v>
       </c>
       <c r="C6" t="n">
-        <v>5.933</v>
+        <v>5.8306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8404</v>
+        <v>0.8408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7689</v>
+        <v>0.7696</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0868</v>
+        <v>1.114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6586</v>
+        <v>0.6751</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7931</v>
+        <v>1.0604</v>
       </c>
       <c r="C8" t="n">
-        <v>1.087</v>
+        <v>3.5094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6754</v>
+        <v>0.6868</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6496</v>
+        <v>0.7222</v>
       </c>
       <c r="C9" t="n">
-        <v>3.278</v>
+        <v>2.8994</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6325</v>
+        <v>0.6916</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5541</v>
+        <v>0.5547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5583</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6254</v>
+        <v>0.6304</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARMA</t>
+          <t>ARIMA</t>
         </is>
       </c>
     </row>
